--- a/development/development/Simulation exercise/03-2019/compare old new new.xlsx
+++ b/development/development/Simulation exercise/03-2019/compare old new new.xlsx
@@ -27245,8 +27245,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="17e36567691b15b4d5883da7bc6603bd">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f51df68fcd961549959ab75dd1af07c" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
     <xsd:import namespace="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
     <xsd:element name="properties">
@@ -27265,6 +27265,8 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -27315,6 +27317,18 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -27463,22 +27477,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{398FC733-0A31-4BE1-89B3-11B1CF8C791C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF4CEEF-DFD3-4346-8B75-D0D4F91ECA12}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
